--- a/data/582/GSO/old/CPI from IMF.xlsx
+++ b/data/582/GSO/old/CPI from IMF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1762">
   <si>
     <t>Country Indexes And Weight</t>
   </si>
@@ -2594,10 +2594,76 @@
     <t>2020M12</t>
   </si>
   <si>
+    <t>2021M01</t>
+  </si>
+  <si>
+    <t>2021M02</t>
+  </si>
+  <si>
+    <t>2021M03</t>
+  </si>
+  <si>
+    <t>2021M04</t>
+  </si>
+  <si>
+    <t>2021M05</t>
+  </si>
+  <si>
+    <t>2021M06</t>
+  </si>
+  <si>
+    <t>2021M07</t>
+  </si>
+  <si>
+    <t>2021M08</t>
+  </si>
+  <si>
+    <t>2021M09</t>
+  </si>
+  <si>
+    <t>2021M10</t>
+  </si>
+  <si>
+    <t>2021M11</t>
+  </si>
+  <si>
     <t>Indexes</t>
   </si>
   <si>
     <t>Index Reference Period</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2019A</t>
   </si>
   <si>
     <t>2019A</t>
@@ -5608,7 +5674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AFU31"/>
+  <dimension ref="A1:AGF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="1" ySplit="3" state="frozen" topLeftCell="B4"/>
@@ -6469,6 +6535,17 @@
     <col min="851" max="851" width="10.003906" customWidth="1"/>
     <col min="852" max="852" width="10.003906" customWidth="1"/>
     <col min="853" max="853" width="10.003906" customWidth="1"/>
+    <col min="854" max="854" width="10.003906" customWidth="1"/>
+    <col min="855" max="855" width="10.003906" customWidth="1"/>
+    <col min="856" max="856" width="10.003906" customWidth="1"/>
+    <col min="857" max="857" width="10.003906" customWidth="1"/>
+    <col min="858" max="858" width="10.003906" customWidth="1"/>
+    <col min="859" max="859" width="10.003906" customWidth="1"/>
+    <col min="860" max="860" width="10.003906" customWidth="1"/>
+    <col min="861" max="861" width="10.003906" customWidth="1"/>
+    <col min="862" max="862" width="10.003906" customWidth="1"/>
+    <col min="863" max="863" width="10.003906" customWidth="1"/>
+    <col min="864" max="864" width="10.003906" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.750000" customHeight="1">
@@ -7339,6 +7416,17 @@
       <c r="AFS1" s="2"/>
       <c r="AFT1" s="2"/>
       <c r="AFU1" s="2"/>
+      <c r="AFV1" s="2"/>
+      <c r="AFW1" s="2"/>
+      <c r="AFX1" s="2"/>
+      <c r="AFY1" s="2"/>
+      <c r="AFZ1" s="2"/>
+      <c r="AGA1" s="2"/>
+      <c r="AGB1" s="2"/>
+      <c r="AGC1" s="2"/>
+      <c r="AGD1" s="2"/>
+      <c r="AGE1" s="2"/>
+      <c r="AGF1" s="2"/>
     </row>
     <row r="2" ht="19.500000" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -8196,6 +8284,17 @@
       <c r="AFS2" s="2"/>
       <c r="AFT2" s="2"/>
       <c r="AFU2" s="2"/>
+      <c r="AFV2" s="2"/>
+      <c r="AFW2" s="2"/>
+      <c r="AFX2" s="2"/>
+      <c r="AFY2" s="2"/>
+      <c r="AFZ2" s="2"/>
+      <c r="AGA2" s="2"/>
+      <c r="AGB2" s="2"/>
+      <c r="AGC2" s="2"/>
+      <c r="AGD2" s="2"/>
+      <c r="AGE2" s="2"/>
+      <c r="AGF2" s="2"/>
     </row>
     <row r="3" ht="14.250000" customHeight="1">
       <c r="A3" s="4"/>
@@ -10752,13 +10851,46 @@
       <c r="AFT3" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="AFU3" s="7" t="s">
+      <c r="AFU3" s="6" t="s">
         <v>859</v>
+      </c>
+      <c r="AFV3" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="AFW3" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="AFX3" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="AFY3" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="AFZ3" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="AGA3" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="AGB3" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="AGC3" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="AGD3" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="AGE3" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="AGF3" s="7" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -11612,2571 +11744,2615 @@
       <c r="AFS4" s="10"/>
       <c r="AFT4" s="10"/>
       <c r="AFU4" s="10"/>
+      <c r="AFV4" s="10"/>
+      <c r="AFW4" s="10"/>
+      <c r="AFX4" s="10"/>
+      <c r="AFY4" s="10"/>
+      <c r="AFZ4" s="10"/>
+      <c r="AGA4" s="10"/>
+      <c r="AGB4" s="10"/>
+      <c r="AGC4" s="10"/>
+      <c r="AGD4" s="10"/>
+      <c r="AGE4" s="10"/>
+      <c r="AGF4" s="10"/>
     </row>
     <row r="5" ht="13.500000" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="AI5" s="13" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="AJ5" s="13" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="AL5" s="13" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="AN5" s="13" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="AO5" s="13" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="AQ5" s="13" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="AR5" s="13" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="AS5" s="13" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="AT5" s="13" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="AU5" s="13" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="AV5" s="13" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="AW5" s="13" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="AX5" s="13" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="AY5" s="13" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="AZ5" s="13" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="BA5" s="13" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="BB5" s="13" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="BC5" s="13" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="BD5" s="13" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="BE5" s="13" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="BF5" s="13" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="BG5" s="13" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="BH5" s="13" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="BI5" s="13" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="BJ5" s="13" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="BK5" s="13" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="BL5" s="13" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="BM5" s="13" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="BN5" s="13" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="BO5" s="13" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="BP5" s="13" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="BQ5" s="13" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="BR5" s="13" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="BS5" s="13" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="BT5" s="13" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="BU5" s="13" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="BV5" s="13" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="BW5" s="13" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="BX5" s="13" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="BY5" s="13" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="BZ5" s="13" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="CA5" s="13" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="CB5" s="13" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="CC5" s="13" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="CD5" s="13" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="CE5" s="13" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="CF5" s="13" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="CG5" s="13" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="CH5" s="13" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="CI5" s="13" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="CJ5" s="13" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="CK5" s="13" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="CL5" s="13" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="CM5" s="13" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="CN5" s="13" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="CO5" s="13" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="CP5" s="13" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="CQ5" s="13" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="CR5" s="13" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="CS5" s="13" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="CT5" s="13" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="CU5" s="13" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="CV5" s="13" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="CW5" s="13" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="CX5" s="13" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="CY5" s="13" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="CZ5" s="13" t="s">
-        <v>964</v>
+        <v>975</v>
       </c>
       <c r="DA5" s="13" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="DB5" s="13" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="DC5" s="13" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="DD5" s="13" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="DE5" s="13" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="DF5" s="13" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="DG5" s="13" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="DH5" s="13" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="DI5" s="13" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="DJ5" s="13" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="DK5" s="13" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="DL5" s="13" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="DM5" s="13" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="DN5" s="13" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="DO5" s="13" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="DP5" s="13" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="DQ5" s="13" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="DR5" s="13" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="DS5" s="13" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="DT5" s="13" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="DU5" s="13" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="DV5" s="13" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="DW5" s="13" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="DX5" s="13" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="DY5" s="13" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="DZ5" s="13" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="EA5" s="13" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="EB5" s="13" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="EC5" s="13" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="ED5" s="13" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="EE5" s="13" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="EF5" s="13" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
       <c r="EG5" s="13" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="EH5" s="13" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="EI5" s="13" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="EJ5" s="13" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="EK5" s="13" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="EL5" s="13" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="EM5" s="13" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="EN5" s="13" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="EO5" s="13" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="EP5" s="13" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="EQ5" s="13" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="ER5" s="13" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="ES5" s="13" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="ET5" s="13" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="EU5" s="13" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="EV5" s="13" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="EW5" s="13" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="EX5" s="13" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="EY5" s="13" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="EZ5" s="13" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="FA5" s="13" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="FB5" s="13" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="FC5" s="13" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="FD5" s="13" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="FE5" s="13" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="FF5" s="13" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="FG5" s="13" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="FH5" s="13" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="FI5" s="13" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="FJ5" s="13" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="FK5" s="13" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="FL5" s="13" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="FM5" s="13" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="FN5" s="13" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="FO5" s="13" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="FP5" s="13" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="FQ5" s="13" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="FR5" s="13" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="FS5" s="13" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="FT5" s="13" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
       <c r="FU5" s="13" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="FV5" s="13" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="FW5" s="13" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="FX5" s="13" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="FY5" s="13" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="FZ5" s="13" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="GA5" s="13" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="GB5" s="13" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="GC5" s="13" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="GD5" s="13" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="GE5" s="13" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="GF5" s="13" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="GG5" s="13" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="GH5" s="13" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="GI5" s="13" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="GJ5" s="13" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="GK5" s="13" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="GL5" s="13" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="GM5" s="13" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="GN5" s="13" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="GO5" s="13" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="GP5" s="13" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="GQ5" s="13" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="GR5" s="13" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="GS5" s="13" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="GT5" s="13" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="GU5" s="13" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="GV5" s="13" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="GW5" s="13" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="GX5" s="13" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="GY5" s="13" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="GZ5" s="13" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="HA5" s="13" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="HB5" s="13" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="HC5" s="13" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="HD5" s="13" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="HE5" s="13" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="HF5" s="13" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="HG5" s="13" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="HH5" s="13" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="HI5" s="13" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="HJ5" s="13" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="HK5" s="13" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="HL5" s="13" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="HM5" s="13" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="HN5" s="13" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
       <c r="HO5" s="13" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="HP5" s="13" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
       <c r="HQ5" s="13" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="HR5" s="13" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="HS5" s="13" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="HT5" s="13" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
       <c r="HU5" s="13" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="HV5" s="13" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="HW5" s="13" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="HX5" s="13" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="HY5" s="13" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="HZ5" s="13" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="IA5" s="13" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
       <c r="IB5" s="13" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
       <c r="IC5" s="13" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="ID5" s="13" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="IE5" s="13" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="IF5" s="13" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="IG5" s="13" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="IH5" s="13" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
       <c r="II5" s="13" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
       <c r="IJ5" s="13" t="s">
-        <v>1104</v>
+        <v>1115</v>
       </c>
       <c r="IK5" s="13" t="s">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="IL5" s="13" t="s">
-        <v>1106</v>
+        <v>1117</v>
       </c>
       <c r="IM5" s="13" t="s">
-        <v>1107</v>
+        <v>1118</v>
       </c>
       <c r="IN5" s="13" t="s">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="IO5" s="13" t="s">
-        <v>1109</v>
+        <v>1120</v>
       </c>
       <c r="IP5" s="13" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
       <c r="IQ5" s="13" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="IR5" s="13" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
       <c r="IS5" s="13" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="IT5" s="13" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="IU5" s="13" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
       <c r="IV5" s="13" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="IW5" s="13" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="IX5" s="13" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
       <c r="IY5" s="13" t="s">
-        <v>1119</v>
+        <v>1130</v>
       </c>
       <c r="IZ5" s="13" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="JA5" s="13" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="JB5" s="13" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="JC5" s="13" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
       <c r="JD5" s="13" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="JE5" s="13" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
       <c r="JF5" s="13" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="JG5" s="13" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
       <c r="JH5" s="13" t="s">
-        <v>1128</v>
+        <v>1139</v>
       </c>
       <c r="JI5" s="13" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
       <c r="JJ5" s="13" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="JK5" s="13" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="JL5" s="13" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
       <c r="JM5" s="13" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
       <c r="JN5" s="13" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
       <c r="JO5" s="13" t="s">
-        <v>1135</v>
+        <v>1146</v>
       </c>
       <c r="JP5" s="13" t="s">
-        <v>1136</v>
+        <v>1147</v>
       </c>
       <c r="JQ5" s="13" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="JR5" s="13" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
       <c r="JS5" s="13" t="s">
-        <v>1139</v>
+        <v>1150</v>
       </c>
       <c r="JT5" s="13" t="s">
-        <v>1140</v>
+        <v>1151</v>
       </c>
       <c r="JU5" s="13" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="JV5" s="13" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="JW5" s="13" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="JX5" s="13" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
       <c r="JY5" s="13" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="JZ5" s="13" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="KA5" s="13" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="KB5" s="13" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="KC5" s="13" t="s">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="KD5" s="13" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="KE5" s="13" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="KF5" s="13" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="KG5" s="13" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="KH5" s="13" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="KI5" s="13" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
       <c r="KJ5" s="13" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="KK5" s="13" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="KL5" s="13" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="KM5" s="13" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
       <c r="KN5" s="13" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="KO5" s="13" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="KP5" s="13" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="KQ5" s="13" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="KR5" s="13" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
       <c r="KS5" s="13" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="KT5" s="13" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="KU5" s="13" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
       <c r="KV5" s="13" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="KW5" s="13" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
       <c r="KX5" s="13" t="s">
-        <v>1170</v>
+        <v>1181</v>
       </c>
       <c r="KY5" s="13" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="KZ5" s="13" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="LA5" s="13" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="LB5" s="13" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
       <c r="LC5" s="13" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
       <c r="LD5" s="13" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="LE5" s="13" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
       <c r="LF5" s="13" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="LG5" s="13" t="s">
-        <v>1179</v>
+        <v>1190</v>
       </c>
       <c r="LH5" s="13" t="s">
-        <v>1180</v>
+        <v>1191</v>
       </c>
       <c r="LI5" s="13" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
       <c r="LJ5" s="13" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
       <c r="LK5" s="13" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="LL5" s="13" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
       <c r="LM5" s="13" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="LN5" s="13" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="LO5" s="13" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="LP5" s="13" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
       <c r="LQ5" s="13" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
       <c r="LR5" s="13" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="LS5" s="13" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="LT5" s="13" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="LU5" s="13" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
       <c r="LV5" s="13" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="LW5" s="13" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="LX5" s="13" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
       <c r="LY5" s="13" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="LZ5" s="13" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="MA5" s="13" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="MB5" s="13" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="MC5" s="13" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="MD5" s="13" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="ME5" s="13" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="MF5" s="13" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="MG5" s="13" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="MH5" s="13" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="MI5" s="13" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="MJ5" s="13" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="MK5" s="13" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
       <c r="ML5" s="13" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="MM5" s="13" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="MN5" s="13" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
       <c r="MO5" s="13" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="MP5" s="13" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
       <c r="MQ5" s="13" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="MR5" s="13" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
       <c r="MS5" s="13" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="MT5" s="13" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="MU5" s="13" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
       <c r="MV5" s="13" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="MW5" s="13" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
       <c r="MX5" s="13" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="MY5" s="13" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="MZ5" s="13" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="NA5" s="13" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
       <c r="NB5" s="13" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="NC5" s="13" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="ND5" s="13" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="NE5" s="13" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="NF5" s="13" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="NG5" s="13" t="s">
-        <v>1231</v>
+        <v>1242</v>
       </c>
       <c r="NH5" s="13" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="NI5" s="13" t="s">
-        <v>1233</v>
+        <v>1244</v>
       </c>
       <c r="NJ5" s="13" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="NK5" s="13" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="NL5" s="13" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="NM5" s="13" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
       <c r="NN5" s="13" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="NO5" s="13" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="NP5" s="13" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="NQ5" s="13" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
       <c r="NR5" s="13" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="NS5" s="13" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="NT5" s="13" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="NU5" s="13" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="NV5" s="13" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="NW5" s="13" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="NX5" s="13" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="NY5" s="13" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="NZ5" s="13" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="OA5" s="13" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="OB5" s="13" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="OC5" s="13" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
       <c r="OD5" s="13" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
       <c r="OE5" s="13" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="OF5" s="13" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="OG5" s="13" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="OH5" s="13" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="OI5" s="13" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="OJ5" s="13" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="OK5" s="13" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="OL5" s="13" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="OM5" s="13" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="ON5" s="13" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="OO5" s="13" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="OP5" s="13" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="OQ5" s="13" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="OR5" s="13" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="OS5" s="13" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
       <c r="OT5" s="13" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="OU5" s="13" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="OV5" s="13" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="OW5" s="13" t="s">
-        <v>1273</v>
+        <v>1284</v>
       </c>
       <c r="OX5" s="13" t="s">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="OY5" s="13" t="s">
-        <v>1275</v>
+        <v>1286</v>
       </c>
       <c r="OZ5" s="13" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="PA5" s="13" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="PB5" s="13" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="PC5" s="13" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="PD5" s="13" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="PE5" s="13" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="PF5" s="13" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="PG5" s="13" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="PH5" s="13" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="PI5" s="13" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="PJ5" s="13" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="PK5" s="13" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="PL5" s="13" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="PM5" s="13" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="PN5" s="13" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="PO5" s="13" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="PP5" s="13" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="PQ5" s="13" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="PR5" s="13" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="PS5" s="13" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="PT5" s="13" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="PU5" s="13" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="PV5" s="13" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="PW5" s="13" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="PX5" s="13" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="PY5" s="13" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="PZ5" s="13" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="QA5" s="13" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="QB5" s="13" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="QC5" s="13" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="QD5" s="13" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="QE5" s="13" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="QF5" s="13" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
       <c r="QG5" s="13" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="QH5" s="13" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="QI5" s="13" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="QJ5" s="13" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="QK5" s="13" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="QL5" s="13" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="QM5" s="13" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="QN5" s="13" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="QO5" s="13" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
       <c r="QP5" s="13" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="QQ5" s="13" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="QR5" s="13" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="QS5" s="13" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="QT5" s="13" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
       <c r="QU5" s="13" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="QV5" s="13" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="QW5" s="13" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="QX5" s="13" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="QY5" s="13" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="QZ5" s="13" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="RA5" s="13" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="RB5" s="13" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="RC5" s="13" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="RD5" s="13" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="RE5" s="13" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="RF5" s="13" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="RG5" s="13" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="RH5" s="13" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="RI5" s="13" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="RJ5" s="13" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="RK5" s="13" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="RL5" s="13" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="RM5" s="13" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="RN5" s="13" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="RO5" s="13" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="RP5" s="13" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="RQ5" s="13" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="RR5" s="13" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="RS5" s="13" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
       <c r="RT5" s="13" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="RU5" s="13" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="RV5" s="13" t="s">
-        <v>1350</v>
+        <v>1361</v>
       </c>
       <c r="RW5" s="13" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="RX5" s="13" t="s">
-        <v>1352</v>
+        <v>1363</v>
       </c>
       <c r="RY5" s="13" t="s">
-        <v>1353</v>
+        <v>1364</v>
       </c>
       <c r="RZ5" s="13" t="s">
-        <v>1354</v>
+        <v>1365</v>
       </c>
       <c r="SA5" s="13" t="s">
-        <v>1355</v>
+        <v>1366</v>
       </c>
       <c r="SB5" s="13" t="s">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="SC5" s="13" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
       <c r="SD5" s="13" t="s">
-        <v>1358</v>
+        <v>1369</v>
       </c>
       <c r="SE5" s="13" t="s">
-        <v>1359</v>
+        <v>1370</v>
       </c>
       <c r="SF5" s="13" t="s">
-        <v>1360</v>
+        <v>1371</v>
       </c>
       <c r="SG5" s="13" t="s">
-        <v>1361</v>
+        <v>1372</v>
       </c>
       <c r="SH5" s="13" t="s">
-        <v>1362</v>
+        <v>1373</v>
       </c>
       <c r="SI5" s="13" t="s">
-        <v>1363</v>
+        <v>1374</v>
       </c>
       <c r="SJ5" s="13" t="s">
-        <v>1364</v>
+        <v>1375</v>
       </c>
       <c r="SK5" s="13" t="s">
-        <v>1365</v>
+        <v>1376</v>
       </c>
       <c r="SL5" s="13" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="SM5" s="13" t="s">
-        <v>1367</v>
+        <v>1378</v>
       </c>
       <c r="SN5" s="13" t="s">
-        <v>1368</v>
+        <v>1379</v>
       </c>
       <c r="SO5" s="13" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="SP5" s="13" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="SQ5" s="13" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="SR5" s="13" t="s">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="SS5" s="13" t="s">
-        <v>1373</v>
+        <v>1384</v>
       </c>
       <c r="ST5" s="13" t="s">
-        <v>1374</v>
+        <v>1385</v>
       </c>
       <c r="SU5" s="13" t="s">
-        <v>1375</v>
+        <v>1386</v>
       </c>
       <c r="SV5" s="13" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="SW5" s="13" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="SX5" s="13" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="SY5" s="13" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="SZ5" s="13" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="TA5" s="13" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="TB5" s="13" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="TC5" s="13" t="s">
-        <v>1383</v>
+        <v>1394</v>
       </c>
       <c r="TD5" s="13" t="s">
-        <v>1384</v>
+        <v>1395</v>
       </c>
       <c r="TE5" s="13" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="TF5" s="13" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="TG5" s="13" t="s">
-        <v>1387</v>
+        <v>1398</v>
       </c>
       <c r="TH5" s="13" t="s">
-        <v>1388</v>
+        <v>1399</v>
       </c>
       <c r="TI5" s="13" t="s">
-        <v>1389</v>
+        <v>1400</v>
       </c>
       <c r="TJ5" s="13" t="s">
-        <v>1390</v>
+        <v>1401</v>
       </c>
       <c r="TK5" s="13" t="s">
-        <v>1391</v>
+        <v>1402</v>
       </c>
       <c r="TL5" s="13" t="s">
-        <v>1392</v>
+        <v>1403</v>
       </c>
       <c r="TM5" s="13" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="TN5" s="13" t="s">
-        <v>1394</v>
+        <v>1405</v>
       </c>
       <c r="TO5" s="13" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
       <c r="TP5" s="13" t="s">
-        <v>1396</v>
+        <v>1407</v>
       </c>
       <c r="TQ5" s="13" t="s">
-        <v>1397</v>
+        <v>1408</v>
       </c>
       <c r="TR5" s="13" t="s">
-        <v>1398</v>
+        <v>1409</v>
       </c>
       <c r="TS5" s="13" t="s">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="TT5" s="13" t="s">
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="TU5" s="13" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="TV5" s="13" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="TW5" s="13" t="s">
-        <v>1403</v>
+        <v>1414</v>
       </c>
       <c r="TX5" s="13" t="s">
-        <v>1404</v>
+        <v>1415</v>
       </c>
       <c r="TY5" s="13" t="s">
-        <v>1405</v>
+        <v>1416</v>
       </c>
       <c r="TZ5" s="13" t="s">
-        <v>1406</v>
+        <v>1417</v>
       </c>
       <c r="UA5" s="13" t="s">
-        <v>1407</v>
+        <v>1418</v>
       </c>
       <c r="UB5" s="13" t="s">
-        <v>1408</v>
+        <v>1419</v>
       </c>
       <c r="UC5" s="13" t="s">
-        <v>1409</v>
+        <v>1420</v>
       </c>
       <c r="UD5" s="13" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="UE5" s="13" t="s">
-        <v>1411</v>
+        <v>1422</v>
       </c>
       <c r="UF5" s="13" t="s">
-        <v>1412</v>
+        <v>1423</v>
       </c>
       <c r="UG5" s="13" t="s">
-        <v>1413</v>
+        <v>1424</v>
       </c>
       <c r="UH5" s="13" t="s">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="UI5" s="13" t="s">
-        <v>1415</v>
+        <v>1426</v>
       </c>
       <c r="UJ5" s="13" t="s">
-        <v>1416</v>
+        <v>1427</v>
       </c>
       <c r="UK5" s="13" t="s">
-        <v>1417</v>
+        <v>1428</v>
       </c>
       <c r="UL5" s="13" t="s">
-        <v>1418</v>
+        <v>1429</v>
       </c>
       <c r="UM5" s="13" t="s">
-        <v>1419</v>
+        <v>1430</v>
       </c>
       <c r="UN5" s="13" t="s">
-        <v>1420</v>
+        <v>1431</v>
       </c>
       <c r="UO5" s="13" t="s">
-        <v>1421</v>
+        <v>1432</v>
       </c>
       <c r="UP5" s="13" t="s">
-        <v>1422</v>
+        <v>1433</v>
       </c>
       <c r="UQ5" s="13" t="s">
-        <v>1423</v>
+        <v>1434</v>
       </c>
       <c r="UR5" s="13" t="s">
-        <v>1424</v>
+        <v>1435</v>
       </c>
       <c r="US5" s="13" t="s">
-        <v>1425</v>
+        <v>1436</v>
       </c>
       <c r="UT5" s="13" t="s">
-        <v>1426</v>
+        <v>1437</v>
       </c>
       <c r="UU5" s="13" t="s">
-        <v>1427</v>
+        <v>1438</v>
       </c>
       <c r="UV5" s="13" t="s">
-        <v>1428</v>
+        <v>1439</v>
       </c>
       <c r="UW5" s="13" t="s">
-        <v>1429</v>
+        <v>1440</v>
       </c>
       <c r="UX5" s="13" t="s">
-        <v>1430</v>
+        <v>1441</v>
       </c>
       <c r="UY5" s="13" t="s">
-        <v>1431</v>
+        <v>1442</v>
       </c>
       <c r="UZ5" s="13" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
       <c r="VA5" s="13" t="s">
-        <v>1433</v>
+        <v>1444</v>
       </c>
       <c r="VB5" s="13" t="s">
-        <v>1434</v>
+        <v>1445</v>
       </c>
       <c r="VC5" s="13" t="s">
-        <v>1435</v>
+        <v>1446</v>
       </c>
       <c r="VD5" s="13" t="s">
-        <v>1436</v>
+        <v>1447</v>
       </c>
       <c r="VE5" s="13" t="s">
-        <v>1437</v>
+        <v>1448</v>
       </c>
       <c r="VF5" s="13" t="s">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="VG5" s="13" t="s">
-        <v>1439</v>
+        <v>1450</v>
       </c>
       <c r="VH5" s="13" t="s">
-        <v>1440</v>
+        <v>1451</v>
       </c>
       <c r="VI5" s="13" t="s">
-        <v>1441</v>
+        <v>1452</v>
       </c>
       <c r="VJ5" s="13" t="s">
-        <v>1442</v>
+        <v>1453</v>
       </c>
       <c r="VK5" s="13" t="s">
-        <v>1443</v>
+        <v>1454</v>
       </c>
       <c r="VL5" s="13" t="s">
-        <v>1444</v>
+        <v>1455</v>
       </c>
       <c r="VM5" s="13" t="s">
-        <v>1445</v>
+        <v>1456</v>
       </c>
       <c r="VN5" s="13" t="s">
-        <v>1446</v>
+        <v>1457</v>
       </c>
       <c r="VO5" s="13" t="s">
-        <v>1447</v>
+        <v>1458</v>
       </c>
       <c r="VP5" s="13" t="s">
-        <v>1448</v>
+        <v>1459</v>
       </c>
       <c r="VQ5" s="13" t="s">
-        <v>1449</v>
+        <v>1460</v>
       </c>
       <c r="VR5" s="13" t="s">
-        <v>1450</v>
+        <v>1461</v>
       </c>
       <c r="VS5" s="13" t="s">
-        <v>1451</v>
+        <v>1462</v>
       </c>
       <c r="VT5" s="13" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="VU5" s="13" t="s">
-        <v>1453</v>
+        <v>1464</v>
       </c>
       <c r="VV5" s="13" t="s">
-        <v>1454</v>
+        <v>1465</v>
       </c>
       <c r="VW5" s="13" t="s">
-        <v>1455</v>
+        <v>1466</v>
       </c>
       <c r="VX5" s="13" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="VY5" s="13" t="s">
-        <v>1457</v>
+        <v>1468</v>
       </c>
       <c r="VZ5" s="13" t="s">
-        <v>1458</v>
+        <v>1469</v>
       </c>
       <c r="WA5" s="13" t="s">
-        <v>1459</v>
+        <v>1470</v>
       </c>
       <c r="WB5" s="13" t="s">
-        <v>1460</v>
+        <v>1471</v>
       </c>
       <c r="WC5" s="13" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="WD5" s="13" t="s">
-        <v>1462</v>
+        <v>1473</v>
       </c>
       <c r="WE5" s="13" t="s">
-        <v>1463</v>
+        <v>1474</v>
       </c>
       <c r="WF5" s="13" t="s">
-        <v>1464</v>
+        <v>1475</v>
       </c>
       <c r="WG5" s="13" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
       <c r="WH5" s="13" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="WI5" s="13" t="s">
-        <v>1467</v>
+        <v>1478</v>
       </c>
       <c r="WJ5" s="13" t="s">
-        <v>1468</v>
+        <v>1479</v>
       </c>
       <c r="WK5" s="13" t="s">
-        <v>1469</v>
+        <v>1480</v>
       </c>
       <c r="WL5" s="13" t="s">
-        <v>1470</v>
+        <v>1481</v>
       </c>
       <c r="WM5" s="13" t="s">
-        <v>1471</v>
+        <v>1482</v>
       </c>
       <c r="WN5" s="13" t="s">
-        <v>1472</v>
+        <v>1483</v>
       </c>
       <c r="WO5" s="13" t="s">
-        <v>1473</v>
+        <v>1484</v>
       </c>
       <c r="WP5" s="13" t="s">
-        <v>1474</v>
+        <v>1485</v>
       </c>
       <c r="WQ5" s="13" t="s">
-        <v>1475</v>
+        <v>1486</v>
       </c>
       <c r="WR5" s="13" t="s">
-        <v>1476</v>
+        <v>1487</v>
       </c>
       <c r="WS5" s="13" t="s">
-        <v>1477</v>
+        <v>1488</v>
       </c>
       <c r="WT5" s="13" t="s">
-        <v>1478</v>
+        <v>1489</v>
       </c>
       <c r="WU5" s="13" t="s">
-        <v>1479</v>
+        <v>1490</v>
       </c>
       <c r="WV5" s="13" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="WW5" s="13" t="s">
-        <v>1481</v>
+        <v>1492</v>
       </c>
       <c r="WX5" s="13" t="s">
-        <v>1482</v>
+        <v>1493</v>
       </c>
       <c r="WY5" s="13" t="s">
-        <v>1483</v>
+        <v>1494</v>
       </c>
       <c r="WZ5" s="13" t="s">
-        <v>1484</v>
+        <v>1495</v>
       </c>
       <c r="XA5" s="13" t="s">
-        <v>1485</v>
+        <v>1496</v>
       </c>
       <c r="XB5" s="13" t="s">
-        <v>1486</v>
+        <v>1497</v>
       </c>
       <c r="XC5" s="13" t="s">
-        <v>1487</v>
+        <v>1498</v>
       </c>
       <c r="XD5" s="13" t="s">
-        <v>1488</v>
+        <v>1499</v>
       </c>
       <c r="XE5" s="13" t="s">
-        <v>1489</v>
+        <v>1500</v>
       </c>
       <c r="XF5" s="13" t="s">
-        <v>1490</v>
+        <v>1501</v>
       </c>
       <c r="XG5" s="13" t="s">
-        <v>1491</v>
+        <v>1502</v>
       </c>
       <c r="XH5" s="13" t="s">
-        <v>1492</v>
+        <v>1503</v>
       </c>
       <c r="XI5" s="13" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="XJ5" s="13" t="s">
-        <v>1494</v>
+        <v>1505</v>
       </c>
       <c r="XK5" s="13" t="s">
-        <v>1495</v>
+        <v>1506</v>
       </c>
       <c r="XL5" s="13" t="s">
-        <v>1496</v>
+        <v>1507</v>
       </c>
       <c r="XM5" s="13" t="s">
-        <v>1497</v>
+        <v>1508</v>
       </c>
       <c r="XN5" s="13" t="s">
-        <v>1498</v>
+        <v>1509</v>
       </c>
       <c r="XO5" s="13" t="s">
-        <v>1499</v>
+        <v>1510</v>
       </c>
       <c r="XP5" s="13" t="s">
-        <v>1500</v>
+        <v>1511</v>
       </c>
       <c r="XQ5" s="13" t="s">
-        <v>1501</v>
+        <v>1512</v>
       </c>
       <c r="XR5" s="13" t="s">
-        <v>1502</v>
+        <v>1513</v>
       </c>
       <c r="XS5" s="13" t="s">
-        <v>1503</v>
+        <v>1514</v>
       </c>
       <c r="XT5" s="13" t="s">
-        <v>1504</v>
+        <v>1515</v>
       </c>
       <c r="XU5" s="13" t="s">
-        <v>1505</v>
+        <v>1516</v>
       </c>
       <c r="XV5" s="13" t="s">
-        <v>1506</v>
+        <v>1517</v>
       </c>
       <c r="XW5" s="13" t="s">
-        <v>1507</v>
+        <v>1518</v>
       </c>
       <c r="XX5" s="13" t="s">
-        <v>1508</v>
+        <v>1519</v>
       </c>
       <c r="XY5" s="13" t="s">
-        <v>1509</v>
+        <v>1520</v>
       </c>
       <c r="XZ5" s="13" t="s">
-        <v>1510</v>
+        <v>1521</v>
       </c>
       <c r="YA5" s="13" t="s">
-        <v>1511</v>
+        <v>1522</v>
       </c>
       <c r="YB5" s="13" t="s">
-        <v>1512</v>
+        <v>1523</v>
       </c>
       <c r="YC5" s="13" t="s">
-        <v>1513</v>
+        <v>1524</v>
       </c>
       <c r="YD5" s="13" t="s">
-        <v>1514</v>
+        <v>1525</v>
       </c>
       <c r="YE5" s="13" t="s">
-        <v>1515</v>
+        <v>1526</v>
       </c>
       <c r="YF5" s="13" t="s">
-        <v>1516</v>
+        <v>1527</v>
       </c>
       <c r="YG5" s="13" t="s">
-        <v>1517</v>
+        <v>1528</v>
       </c>
       <c r="YH5" s="13" t="s">
-        <v>1518</v>
+        <v>1529</v>
       </c>
       <c r="YI5" s="13" t="s">
-        <v>1519</v>
+        <v>1530</v>
       </c>
       <c r="YJ5" s="13" t="s">
-        <v>1520</v>
+        <v>1531</v>
       </c>
       <c r="YK5" s="13" t="s">
-        <v>1521</v>
+        <v>1532</v>
       </c>
       <c r="YL5" s="13" t="s">
-        <v>1522</v>
+        <v>1533</v>
       </c>
       <c r="YM5" s="13" t="s">
-        <v>1523</v>
+        <v>1534</v>
       </c>
       <c r="YN5" s="13" t="s">
-        <v>1524</v>
+        <v>1535</v>
       </c>
       <c r="YO5" s="13" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="YP5" s="13" t="s">
-        <v>1526</v>
+        <v>1537</v>
       </c>
       <c r="YQ5" s="13" t="s">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="YR5" s="13" t="s">
-        <v>1528</v>
+        <v>1539</v>
       </c>
       <c r="YS5" s="13" t="s">
-        <v>1529</v>
+        <v>1540</v>
       </c>
       <c r="YT5" s="13" t="s">
-        <v>1530</v>
+        <v>1541</v>
       </c>
       <c r="YU5" s="13" t="s">
-        <v>1531</v>
+        <v>1542</v>
       </c>
       <c r="YV5" s="13" t="s">
-        <v>1532</v>
+        <v>1543</v>
       </c>
       <c r="YW5" s="13" t="s">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="YX5" s="13" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="YY5" s="13" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
       <c r="YZ5" s="13" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
       <c r="ZA5" s="13" t="s">
-        <v>1537</v>
+        <v>1548</v>
       </c>
       <c r="ZB5" s="13" t="s">
-        <v>1538</v>
+        <v>1549</v>
       </c>
       <c r="ZC5" s="13" t="s">
-        <v>1539</v>
+        <v>1550</v>
       </c>
       <c r="ZD5" s="13" t="s">
-        <v>1540</v>
+        <v>1551</v>
       </c>
       <c r="ZE5" s="13" t="s">
-        <v>1541</v>
+        <v>1552</v>
       </c>
       <c r="ZF5" s="13" t="s">
-        <v>1542</v>
+        <v>1553</v>
       </c>
       <c r="ZG5" s="13" t="s">
-        <v>1543</v>
+        <v>1554</v>
       </c>
       <c r="ZH5" s="13" t="s">
-        <v>1544</v>
+        <v>1555</v>
       </c>
       <c r="ZI5" s="13" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
       <c r="ZJ5" s="13" t="s">
-        <v>1546</v>
+        <v>1557</v>
       </c>
       <c r="ZK5" s="13" t="s">
-        <v>1547</v>
+        <v>1558</v>
       </c>
       <c r="ZL5" s="13" t="s">
-        <v>1548</v>
+        <v>1559</v>
       </c>
       <c r="ZM5" s="13" t="s">
-        <v>1549</v>
+        <v>1560</v>
       </c>
       <c r="ZN5" s="13" t="s">
-        <v>1550</v>
+        <v>1561</v>
       </c>
       <c r="ZO5" s="13" t="s">
-        <v>1551</v>
+        <v>1562</v>
       </c>
       <c r="ZP5" s="13" t="s">
-        <v>1552</v>
+        <v>1563</v>
       </c>
       <c r="ZQ5" s="13" t="s">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="ZR5" s="13" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="ZS5" s="13" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
       <c r="ZT5" s="13" t="s">
-        <v>1556</v>
+        <v>1567</v>
       </c>
       <c r="ZU5" s="13" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
       <c r="ZV5" s="13" t="s">
-        <v>1558</v>
+        <v>1569</v>
       </c>
       <c r="ZW5" s="13" t="s">
-        <v>1559</v>
+        <v>1570</v>
       </c>
       <c r="ZX5" s="13" t="s">
-        <v>1560</v>
+        <v>1571</v>
       </c>
       <c r="ZY5" s="13" t="s">
-        <v>1561</v>
+        <v>1572</v>
       </c>
       <c r="ZZ5" s="13" t="s">
-        <v>1562</v>
+        <v>1573</v>
       </c>
       <c r="AAA5" s="13" t="s">
-        <v>1563</v>
+        <v>1574</v>
       </c>
       <c r="AAB5" s="13" t="s">
-        <v>1564</v>
+        <v>1575</v>
       </c>
       <c r="AAC5" s="13" t="s">
-        <v>1565</v>
+        <v>1576</v>
       </c>
       <c r="AAD5" s="13" t="s">
-        <v>1566</v>
+        <v>1577</v>
       </c>
       <c r="AAE5" s="13" t="s">
-        <v>1567</v>
+        <v>1578</v>
       </c>
       <c r="AAF5" s="13" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="AAG5" s="13" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="AAH5" s="13" t="s">
-        <v>1570</v>
+        <v>1581</v>
       </c>
       <c r="AAI5" s="13" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="AAJ5" s="13" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="AAK5" s="13" t="s">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="AAL5" s="13" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="AAM5" s="13" t="s">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="AAN5" s="13" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="AAO5" s="13" t="s">
-        <v>1577</v>
+        <v>1588</v>
       </c>
       <c r="AAP5" s="13" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="AAQ5" s="13" t="s">
-        <v>1579</v>
+        <v>1590</v>
       </c>
       <c r="AAR5" s="13" t="s">
-        <v>1580</v>
+        <v>1591</v>
       </c>
       <c r="AAS5" s="13" t="s">
-        <v>1581</v>
+        <v>1592</v>
       </c>
       <c r="AAT5" s="13" t="s">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="AAU5" s="13" t="s">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="AAV5" s="13" t="s">
-        <v>1584</v>
+        <v>1595</v>
       </c>
       <c r="AAW5" s="13" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="AAX5" s="13" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="AAY5" s="13" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="AAZ5" s="13" t="s">
-        <v>1588</v>
+        <v>1599</v>
       </c>
       <c r="ABA5" s="13" t="s">
-        <v>1589</v>
+        <v>1600</v>
       </c>
       <c r="ABB5" s="13" t="s">
-        <v>1590</v>
+        <v>1601</v>
       </c>
       <c r="ABC5" s="13" t="s">
-        <v>1591</v>
+        <v>1602</v>
       </c>
       <c r="ABD5" s="13" t="s">
-        <v>1592</v>
+        <v>1603</v>
       </c>
       <c r="ABE5" s="13" t="s">
-        <v>1593</v>
+        <v>1604</v>
       </c>
       <c r="ABF5" s="13" t="s">
-        <v>1594</v>
+        <v>1605</v>
       </c>
       <c r="ABG5" s="13" t="s">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="ABH5" s="13" t="s">
-        <v>1596</v>
+        <v>1607</v>
       </c>
       <c r="ABI5" s="13" t="s">
-        <v>1597</v>
+        <v>1608</v>
       </c>
       <c r="ABJ5" s="13" t="s">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="ABK5" s="13" t="s">
-        <v>1599</v>
+        <v>1610</v>
       </c>
       <c r="ABL5" s="13" t="s">
-        <v>1600</v>
+        <v>1611</v>
       </c>
       <c r="ABM5" s="13" t="s">
-        <v>1601</v>
+        <v>1612</v>
       </c>
       <c r="ABN5" s="13" t="s">
-        <v>1602</v>
+        <v>1613</v>
       </c>
       <c r="ABO5" s="13" t="s">
-        <v>1603</v>
+        <v>1614</v>
       </c>
       <c r="ABP5" s="13" t="s">
-        <v>1604</v>
+        <v>1615</v>
       </c>
       <c r="ABQ5" s="13" t="s">
-        <v>1605</v>
+        <v>1616</v>
       </c>
       <c r="ABR5" s="13" t="s">
-        <v>1606</v>
+        <v>1617</v>
       </c>
       <c r="ABS5" s="13" t="s">
-        <v>1607</v>
+        <v>1618</v>
       </c>
       <c r="ABT5" s="13" t="s">
-        <v>1608</v>
+        <v>1619</v>
       </c>
       <c r="ABU5" s="13" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="ABV5" s="13" t="s">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="ABW5" s="13" t="s">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="ABX5" s="13" t="s">
-        <v>1612</v>
+        <v>1623</v>
       </c>
       <c r="ABY5" s="13" t="s">
-        <v>1613</v>
+        <v>1624</v>
       </c>
       <c r="ABZ5" s="13" t="s">
-        <v>1614</v>
+        <v>1625</v>
       </c>
       <c r="ACA5" s="13" t="s">
-        <v>1615</v>
+        <v>1626</v>
       </c>
       <c r="ACB5" s="13" t="s">
-        <v>1616</v>
+        <v>1627</v>
       </c>
       <c r="ACC5" s="13" t="s">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="ACD5" s="13" t="s">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="ACE5" s="13" t="s">
-        <v>1619</v>
+        <v>1630</v>
       </c>
       <c r="ACF5" s="13" t="s">
-        <v>1620</v>
+        <v>1631</v>
       </c>
       <c r="ACG5" s="13" t="s">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="ACH5" s="13" t="s">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="ACI5" s="13" t="s">
-        <v>1623</v>
+        <v>1634</v>
       </c>
       <c r="ACJ5" s="13" t="s">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="ACK5" s="13" t="s">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="ACL5" s="13" t="s">
-        <v>1626</v>
+        <v>1637</v>
       </c>
       <c r="ACM5" s="13" t="s">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="ACN5" s="13" t="s">
-        <v>1628</v>
+        <v>1639</v>
       </c>
       <c r="ACO5" s="13" t="s">
-        <v>1629</v>
+        <v>1640</v>
       </c>
       <c r="ACP5" s="13" t="s">
-        <v>1630</v>
+        <v>1641</v>
       </c>
       <c r="ACQ5" s="13" t="s">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="ACR5" s="13" t="s">
-        <v>1632</v>
+        <v>1643</v>
       </c>
       <c r="ACS5" s="13" t="s">
-        <v>1633</v>
+        <v>1644</v>
       </c>
       <c r="ACT5" s="13" t="s">
-        <v>1634</v>
+        <v>1645</v>
       </c>
       <c r="ACU5" s="13" t="s">
-        <v>1635</v>
+        <v>1646</v>
       </c>
       <c r="ACV5" s="13" t="s">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="ACW5" s="13" t="s">
-        <v>1637</v>
+        <v>1648</v>
       </c>
       <c r="ACX5" s="13" t="s">
-        <v>1638</v>
+        <v>1649</v>
       </c>
       <c r="ACY5" s="13" t="s">
-        <v>1639</v>
+        <v>1650</v>
       </c>
       <c r="ACZ5" s="13" t="s">
-        <v>1640</v>
+        <v>1651</v>
       </c>
       <c r="ADA5" s="13" t="s">
-        <v>1641</v>
+        <v>1652</v>
       </c>
       <c r="ADB5" s="13" t="s">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="ADC5" s="13" t="s">
-        <v>1643</v>
+        <v>1654</v>
       </c>
       <c r="ADD5" s="13" t="s">
-        <v>1644</v>
+        <v>1655</v>
       </c>
       <c r="ADE5" s="13" t="s">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="ADF5" s="13" t="s">
-        <v>1646</v>
+        <v>1657</v>
       </c>
       <c r="ADG5" s="13" t="s">
-        <v>1647</v>
+        <v>1658</v>
       </c>
       <c r="ADH5" s="13" t="s">
-        <v>1648</v>
+        <v>1659</v>
       </c>
       <c r="ADI5" s="13" t="s">
-        <v>1649</v>
+        <v>1660</v>
       </c>
       <c r="ADJ5" s="13" t="s">
-        <v>1650</v>
+        <v>1661</v>
       </c>
       <c r="ADK5" s="13" t="s">
-        <v>1651</v>
+        <v>1662</v>
       </c>
       <c r="ADL5" s="13" t="s">
-        <v>1652</v>
+        <v>1663</v>
       </c>
       <c r="ADM5" s="13" t="s">
-        <v>1653</v>
+        <v>1664</v>
       </c>
       <c r="ADN5" s="13" t="s">
-        <v>1654</v>
+        <v>1665</v>
       </c>
       <c r="ADO5" s="13" t="s">
-        <v>1655</v>
+        <v>1666</v>
       </c>
       <c r="ADP5" s="13" t="s">
-        <v>1656</v>
+        <v>1667</v>
       </c>
       <c r="ADQ5" s="13" t="s">
-        <v>1657</v>
+        <v>1668</v>
       </c>
       <c r="ADR5" s="13" t="s">
-        <v>1658</v>
+        <v>1669</v>
       </c>
       <c r="ADS5" s="13" t="s">
-        <v>1659</v>
+        <v>1670</v>
       </c>
       <c r="ADT5" s="13" t="s">
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="ADU5" s="13" t="s">
-        <v>1661</v>
+        <v>1672</v>
       </c>
       <c r="ADV5" s="13" t="s">
-        <v>1662</v>
+        <v>1673</v>
       </c>
       <c r="ADW5" s="13" t="s">
-        <v>1663</v>
+        <v>1674</v>
       </c>
       <c r="ADX5" s="13" t="s">
-        <v>1664</v>
+        <v>1675</v>
       </c>
       <c r="ADY5" s="13" t="s">
-        <v>1665</v>
+        <v>1676</v>
       </c>
       <c r="ADZ5" s="13" t="s">
-        <v>1666</v>
+        <v>1677</v>
       </c>
       <c r="AEA5" s="13" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="AEB5" s="13" t="s">
-        <v>1668</v>
+        <v>1679</v>
       </c>
       <c r="AEC5" s="13" t="s">
-        <v>1669</v>
+        <v>1680</v>
       </c>
       <c r="AED5" s="13" t="s">
-        <v>1670</v>
+        <v>1681</v>
       </c>
       <c r="AEE5" s="13" t="s">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="AEF5" s="13" t="s">
-        <v>1672</v>
+        <v>1683</v>
       </c>
       <c r="AEG5" s="13" t="s">
-        <v>1673</v>
+        <v>1684</v>
       </c>
       <c r="AEH5" s="13" t="s">
-        <v>1674</v>
+        <v>1685</v>
       </c>
       <c r="AEI5" s="13" t="s">
-        <v>1675</v>
+        <v>1686</v>
       </c>
       <c r="AEJ5" s="13" t="s">
-        <v>1676</v>
+        <v>1687</v>
       </c>
       <c r="AEK5" s="13" t="s">
-        <v>1677</v>
+        <v>1688</v>
       </c>
       <c r="AEL5" s="13" t="s">
-        <v>1678</v>
+        <v>1689</v>
       </c>
       <c r="AEM5" s="13" t="s">
-        <v>1679</v>
+        <v>1690</v>
       </c>
       <c r="AEN5" s="13" t="s">
-        <v>1680</v>
+        <v>1691</v>
       </c>
       <c r="AEO5" s="13" t="s">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="AEP5" s="13" t="s">
-        <v>1682</v>
+        <v>1693</v>
       </c>
       <c r="AEQ5" s="13" t="s">
-        <v>1683</v>
+        <v>1694</v>
       </c>
       <c r="AER5" s="13" t="s">
-        <v>1684</v>
+        <v>1695</v>
       </c>
       <c r="AES5" s="13" t="s">
-        <v>1685</v>
+        <v>1696</v>
       </c>
       <c r="AET5" s="13" t="s">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="AEU5" s="13" t="s">
-        <v>1687</v>
+        <v>1698</v>
       </c>
       <c r="AEV5" s="13" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="AEW5" s="13" t="s">
-        <v>1689</v>
+        <v>1700</v>
       </c>
       <c r="AEX5" s="13" t="s">
-        <v>1690</v>
+        <v>1701</v>
       </c>
       <c r="AEY5" s="13" t="s">
-        <v>1691</v>
+        <v>1702</v>
       </c>
       <c r="AEZ5" s="13" t="s">
-        <v>1692</v>
+        <v>1703</v>
       </c>
       <c r="AFA5" s="13" t="s">
-        <v>1693</v>
+        <v>1704</v>
       </c>
       <c r="AFB5" s="13" t="s">
-        <v>1694</v>
+        <v>1705</v>
       </c>
       <c r="AFC5" s="13" t="s">
-        <v>1695</v>
+        <v>1706</v>
       </c>
       <c r="AFD5" s="13" t="s">
-        <v>1696</v>
+        <v>1707</v>
       </c>
       <c r="AFE5" s="13" t="s">
-        <v>1697</v>
+        <v>1708</v>
       </c>
       <c r="AFF5" s="13" t="s">
-        <v>1698</v>
+        <v>1709</v>
       </c>
       <c r="AFG5" s="13" t="s">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="AFH5" s="13" t="s">
-        <v>1700</v>
+        <v>1711</v>
       </c>
       <c r="AFI5" s="13" t="s">
-        <v>1701</v>
+        <v>1712</v>
       </c>
       <c r="AFJ5" s="13" t="s">
-        <v>1702</v>
+        <v>1713</v>
       </c>
       <c r="AFK5" s="13" t="s">
-        <v>1703</v>
+        <v>1714</v>
       </c>
       <c r="AFL5" s="13" t="s">
-        <v>1704</v>
+        <v>1715</v>
       </c>
       <c r="AFM5" s="13" t="s">
-        <v>1705</v>
+        <v>1716</v>
       </c>
       <c r="AFN5" s="13" t="s">
-        <v>1706</v>
+        <v>1717</v>
       </c>
       <c r="AFO5" s="13" t="s">
-        <v>1707</v>
+        <v>1718</v>
       </c>
       <c r="AFP5" s="13" t="s">
-        <v>1708</v>
+        <v>1719</v>
       </c>
       <c r="AFQ5" s="13" t="s">
-        <v>1709</v>
+        <v>1720</v>
       </c>
       <c r="AFR5" s="13" t="s">
-        <v>1710</v>
+        <v>1721</v>
       </c>
       <c r="AFS5" s="13" t="s">
-        <v>1711</v>
+        <v>1722</v>
       </c>
       <c r="AFT5" s="13" t="s">
-        <v>1712</v>
+        <v>1723</v>
       </c>
       <c r="AFU5" s="13" t="s">
-        <v>1713</v>
+        <v>1724</v>
+      </c>
+      <c r="AFV5" s="13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AFW5" s="13" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AFX5" s="13" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AFY5" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AFZ5" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AGA5" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AGB5" s="13" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AGC5" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AGD5" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AGE5" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="AGF5" s="13" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>1714</v>
+        <v>1736</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -15488,10 +15664,43 @@
       <c r="AFU6" s="15">
         <v>103.206722857004</v>
       </c>
+      <c r="AFV6" s="15">
+        <v>103.27112385206701</v>
+      </c>
+      <c r="AFW6" s="15">
+        <v>104.83888278326501</v>
+      </c>
+      <c r="AFX6" s="15">
+        <v>104.558229094054</v>
+      </c>
+      <c r="AFY6" s="15">
+        <v>104.51818329231099</v>
+      </c>
+      <c r="AFZ6" s="15">
+        <v>104.683740094646</v>
+      </c>
+      <c r="AGA6" s="15">
+        <v>104.879917423583</v>
+      </c>
+      <c r="AGB6" s="15">
+        <v>105.532690029628</v>
+      </c>
+      <c r="AGC6" s="15">
+        <v>105.794305568211</v>
+      </c>
+      <c r="AGD6" s="15">
+        <v>105.143141617439</v>
+      </c>
+      <c r="AGE6" s="15">
+        <v>104.92959589681401</v>
+      </c>
+      <c r="AGF6" s="15">
+        <v>105.26631497004701</v>
+      </c>
     </row>
     <row r="7" ht="13.500000" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>1715</v>
+        <v>1737</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -16801,10 +17010,43 @@
       <c r="AFU7" s="13">
         <v>108.425599537487</v>
       </c>
+      <c r="AFV7" s="13">
+        <v>109.12104133292</v>
+      </c>
+      <c r="AFW7" s="13">
+        <v>110.87297965152</v>
+      </c>
+      <c r="AFX7" s="13">
+        <v>109.256451608201</v>
+      </c>
+      <c r="AFY7" s="13">
+        <v>109.118679222723</v>
+      </c>
+      <c r="AFZ7" s="13">
+        <v>109.16243581309099</v>
+      </c>
+      <c r="AGA7" s="13">
+        <v>109.01855972269</v>
+      </c>
+      <c r="AGB7" s="13">
+        <v>109.74887505427201</v>
+      </c>
+      <c r="AGC7" s="13">
+        <v>110.562992209425</v>
+      </c>
+      <c r="AGD7" s="13">
+        <v>110.381447776217</v>
+      </c>
+      <c r="AGE7" s="13">
+        <v>108.970883255085</v>
+      </c>
+      <c r="AGF7" s="13">
+        <v>108.785741724434</v>
+      </c>
     </row>
     <row r="8" ht="13.500000" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>1716</v>
+        <v>1738</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -18114,10 +18356,43 @@
       <c r="AFU8" s="15">
         <v>102.10219347834401</v>
       </c>
+      <c r="AFV8" s="15">
+        <v>102.425142716316</v>
+      </c>
+      <c r="AFW8" s="15">
+        <v>103.351987832756</v>
+      </c>
+      <c r="AFX8" s="15">
+        <v>102.965761454225</v>
+      </c>
+      <c r="AFY8" s="15">
+        <v>103.10569192404201</v>
+      </c>
+      <c r="AFZ8" s="15">
+        <v>103.200549160612</v>
+      </c>
+      <c r="AGA8" s="15">
+        <v>103.314379366336</v>
+      </c>
+      <c r="AGB8" s="15">
+        <v>103.50499439626699</v>
+      </c>
+      <c r="AGC8" s="15">
+        <v>103.729082709135</v>
+      </c>
+      <c r="AGD8" s="15">
+        <v>103.901480444597</v>
+      </c>
+      <c r="AGE8" s="15">
+        <v>104.099620567805</v>
+      </c>
+      <c r="AGF8" s="15">
+        <v>104.440338625924</v>
+      </c>
     </row>
     <row r="9" ht="13.500000" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>1717</v>
+        <v>1739</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -19427,10 +19702,43 @@
       <c r="AFU9" s="13">
         <v>101.78121540320301</v>
       </c>
+      <c r="AFV9" s="13">
+        <v>102.23210618744</v>
+      </c>
+      <c r="AFW9" s="13">
+        <v>102.49198020136799</v>
+      </c>
+      <c r="AFX9" s="13">
+        <v>102.291915856015</v>
+      </c>
+      <c r="AFY9" s="13">
+        <v>102.294370861996</v>
+      </c>
+      <c r="AFZ9" s="13">
+        <v>102.283425364313</v>
+      </c>
+      <c r="AGA9" s="13">
+        <v>102.28015229470201</v>
+      </c>
+      <c r="AGB9" s="13">
+        <v>102.25038877038401</v>
+      </c>
+      <c r="AGC9" s="13">
+        <v>102.223803669304</v>
+      </c>
+      <c r="AGD9" s="13">
+        <v>102.247315144148</v>
+      </c>
+      <c r="AGE9" s="13">
+        <v>102.38391755718</v>
+      </c>
+      <c r="AGF9" s="13">
+        <v>102.639672583238</v>
+      </c>
     </row>
     <row r="10" ht="13.500000" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>1718</v>
+        <v>1740</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -20740,10 +21048,43 @@
       <c r="AFU10" s="15">
         <v>102.400356589832</v>
       </c>
+      <c r="AFV10" s="15">
+        <v>100.033167546545</v>
+      </c>
+      <c r="AFW10" s="15">
+        <v>104.031493253381</v>
+      </c>
+      <c r="AFX10" s="15">
+        <v>104.280440616736</v>
+      </c>
+      <c r="AFY10" s="15">
+        <v>103.83349464825299</v>
+      </c>
+      <c r="AFZ10" s="15">
+        <v>104.246128955985</v>
+      </c>
+      <c r="AGA10" s="15">
+        <v>104.902879568408</v>
+      </c>
+      <c r="AGB10" s="15">
+        <v>105.829486703635</v>
+      </c>
+      <c r="AGC10" s="15">
+        <v>105.83223827029001</v>
+      </c>
+      <c r="AGD10" s="15">
+        <v>103.724695077375</v>
+      </c>
+      <c r="AGE10" s="15">
+        <v>103.454907145479</v>
+      </c>
+      <c r="AGF10" s="15">
+        <v>103.932144632141</v>
+      </c>
     </row>
     <row r="11" ht="13.500000" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>1719</v>
+        <v>1741</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -22053,10 +22394,43 @@
       <c r="AFU11" s="13">
         <v>101.693684511138</v>
       </c>
+      <c r="AFV11" s="13">
+        <v>101.773920828217</v>
+      </c>
+      <c r="AFW11" s="13">
+        <v>101.98194672239001</v>
+      </c>
+      <c r="AFX11" s="13">
+        <v>101.92993592956201</v>
+      </c>
+      <c r="AFY11" s="13">
+        <v>102.04430131767499</v>
+      </c>
+      <c r="AFZ11" s="13">
+        <v>102.138794340695</v>
+      </c>
+      <c r="AGA11" s="13">
+        <v>102.240422441064</v>
+      </c>
+      <c r="AGB11" s="13">
+        <v>102.30350478171</v>
+      </c>
+      <c r="AGC11" s="13">
+        <v>102.30094719409</v>
+      </c>
+      <c r="AGD11" s="13">
+        <v>102.390255920991</v>
+      </c>
+      <c r="AGE11" s="13">
+        <v>102.453430708894</v>
+      </c>
+      <c r="AGF11" s="13">
+        <v>102.65188300417699</v>
+      </c>
     </row>
     <row r="12" ht="13.500000" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>1720</v>
+        <v>1742</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -23366,10 +23740,43 @@
       <c r="AFU12" s="15">
         <v>102.265667075322</v>
       </c>
+      <c r="AFV12" s="15">
+        <v>102.276814033034</v>
+      </c>
+      <c r="AFW12" s="15">
+        <v>102.291848724696</v>
+      </c>
+      <c r="AFX12" s="15">
+        <v>102.307908544946</v>
+      </c>
+      <c r="AFY12" s="15">
+        <v>102.31394471154999</v>
+      </c>
+      <c r="AFZ12" s="15">
+        <v>102.322641396851</v>
+      </c>
+      <c r="AGA12" s="15">
+        <v>102.339013019474</v>
+      </c>
+      <c r="AGB12" s="15">
+        <v>102.36725858706799</v>
+      </c>
+      <c r="AGC12" s="15">
+        <v>102.387936773302</v>
+      </c>
+      <c r="AGD12" s="15">
+        <v>102.419165094018</v>
+      </c>
+      <c r="AGE12" s="15">
+        <v>102.441287633679</v>
+      </c>
+      <c r="AGF12" s="15">
+        <v>102.48236659002001</v>
+      </c>
     </row>
     <row r="13" ht="13.500000" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>1721</v>
+        <v>1743</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -24679,10 +25086,43 @@
       <c r="AFU13" s="13">
         <v>91.634435210649102</v>
       </c>
+      <c r="AFV13" s="13">
+        <v>93.731489260444803</v>
+      </c>
+      <c r="AFW13" s="13">
+        <v>95.179828232497201</v>
+      </c>
+      <c r="AFX13" s="13">
+        <v>97.356686084002604</v>
+      </c>
+      <c r="AFY13" s="13">
+        <v>98.205441673283005</v>
+      </c>
+      <c r="AFZ13" s="13">
+        <v>98.951017386466503</v>
+      </c>
+      <c r="AGA13" s="13">
+        <v>100.00632998689299</v>
+      </c>
+      <c r="AGB13" s="13">
+        <v>102.37127967842299</v>
+      </c>
+      <c r="AGC13" s="13">
+        <v>102.308423712701</v>
+      </c>
+      <c r="AGD13" s="13">
+        <v>102.14831102959</v>
+      </c>
+      <c r="AGE13" s="13">
+        <v>104.708147703992</v>
+      </c>
+      <c r="AGF13" s="13">
+        <v>107.961115728712</v>
+      </c>
     </row>
     <row r="14" ht="13.500000" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>1722</v>
+        <v>1744</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
@@ -25898,10 +26338,43 @@
       <c r="AFU14" s="15">
         <v>98.682324028744105</v>
       </c>
+      <c r="AFV14" s="15">
+        <v>98.585220621899794</v>
+      </c>
+      <c r="AFW14" s="15">
+        <v>98.616373551616306</v>
+      </c>
+      <c r="AFX14" s="15">
+        <v>98.485805473034006</v>
+      </c>
+      <c r="AFY14" s="15">
+        <v>98.290311149169995</v>
+      </c>
+      <c r="AFZ14" s="15">
+        <v>98.139730392489497</v>
+      </c>
+      <c r="AGA14" s="15">
+        <v>98.1532736752836</v>
+      </c>
+      <c r="AGB14" s="15">
+        <v>98.107926862845702</v>
+      </c>
+      <c r="AGC14" s="15">
+        <v>98.058578575633703</v>
+      </c>
+      <c r="AGD14" s="15">
+        <v>98.000920131431201</v>
+      </c>
+      <c r="AGE14" s="15">
+        <v>97.959661744055794</v>
+      </c>
+      <c r="AGF14" s="15">
+        <v>97.985816973741507</v>
+      </c>
     </row>
     <row r="15" ht="13.500000" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>1723</v>
+        <v>1745</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -27211,10 +27684,43 @@
       <c r="AFU15" s="13">
         <v>98.927537507558696</v>
       </c>
+      <c r="AFV15" s="13">
+        <v>99.003316001289505</v>
+      </c>
+      <c r="AFW15" s="13">
+        <v>99.128951209295096</v>
+      </c>
+      <c r="AFX15" s="13">
+        <v>99.097725589664194</v>
+      </c>
+      <c r="AFY15" s="13">
+        <v>98.988718091515494</v>
+      </c>
+      <c r="AFZ15" s="13">
+        <v>98.759658197851806</v>
+      </c>
+      <c r="AGA15" s="13">
+        <v>98.676107527016399</v>
+      </c>
+      <c r="AGB15" s="13">
+        <v>98.578319504457099</v>
+      </c>
+      <c r="AGC15" s="13">
+        <v>98.550618996676405</v>
+      </c>
+      <c r="AGD15" s="13">
+        <v>98.561755216622998</v>
+      </c>
+      <c r="AGE15" s="13">
+        <v>98.598124504297999</v>
+      </c>
+      <c r="AGF15" s="13">
+        <v>98.685679638857806</v>
+      </c>
     </row>
     <row r="16" ht="13.500000" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>1724</v>
+        <v>1746</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -28524,10 +29030,43 @@
       <c r="AFU16" s="15">
         <v>106.755597337154</v>
       </c>
+      <c r="AFV16" s="15">
+        <v>107.111200231884</v>
+      </c>
+      <c r="AFW16" s="15">
+        <v>107.110771787083</v>
+      </c>
+      <c r="AFX16" s="15">
+        <v>107.118055319565</v>
+      </c>
+      <c r="AFY16" s="15">
+        <v>107.14740566672199</v>
+      </c>
+      <c r="AFZ16" s="15">
+        <v>107.178799856583</v>
+      </c>
+      <c r="AGA16" s="15">
+        <v>107.207095059745</v>
+      </c>
+      <c r="AGB16" s="15">
+        <v>107.238828359883</v>
+      </c>
+      <c r="AGC16" s="15">
+        <v>107.281616652398</v>
+      </c>
+      <c r="AGD16" s="15">
+        <v>104.17699394809399</v>
+      </c>
+      <c r="AGE16" s="15">
+        <v>104.43566542406801</v>
+      </c>
+      <c r="AGF16" s="15">
+        <v>103.47621496581699</v>
+      </c>
     </row>
     <row r="17" ht="13.500000" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>1725</v>
+        <v>1747</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -29381,10 +29920,21 @@
       <c r="AFS17" s="13"/>
       <c r="AFT17" s="13"/>
       <c r="AFU17" s="13"/>
+      <c r="AFV17" s="13"/>
+      <c r="AFW17" s="13"/>
+      <c r="AFX17" s="13"/>
+      <c r="AFY17" s="13"/>
+      <c r="AFZ17" s="13"/>
+      <c r="AGA17" s="13"/>
+      <c r="AGB17" s="13"/>
+      <c r="AGC17" s="13"/>
+      <c r="AGD17" s="13"/>
+      <c r="AGE17" s="13"/>
+      <c r="AGF17" s="13"/>
     </row>
     <row r="18" ht="13.500000" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -30694,10 +31244,43 @@
       <c r="AFU18" s="15">
         <v>103.925048825118</v>
       </c>
+      <c r="AFV18" s="15">
+        <v>104.17581996793299</v>
+      </c>
+      <c r="AFW18" s="15">
+        <v>104.944116640197</v>
+      </c>
+      <c r="AFX18" s="15">
+        <v>104.65489065473599</v>
+      </c>
+      <c r="AFY18" s="15">
+        <v>104.727311839069</v>
+      </c>
+      <c r="AFZ18" s="15">
+        <v>104.787320588753</v>
+      </c>
+      <c r="AGA18" s="15">
+        <v>104.848725958618</v>
+      </c>
+      <c r="AGB18" s="15">
+        <v>104.848725958618</v>
+      </c>
+      <c r="AGC18" s="15">
+        <v>104.851871420397</v>
+      </c>
+      <c r="AGD18" s="15">
+        <v>104.86980109040999</v>
+      </c>
+      <c r="AGE18" s="15">
+        <v>104.9938620651</v>
+      </c>
+      <c r="AGF18" s="15">
+        <v>105.251726990332</v>
+      </c>
     </row>
     <row r="19" ht="13.500000" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>1727</v>
+        <v>1749</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -31551,10 +32134,21 @@
       <c r="AFS19" s="13"/>
       <c r="AFT19" s="13"/>
       <c r="AFU19" s="13"/>
+      <c r="AFV19" s="13"/>
+      <c r="AFW19" s="13"/>
+      <c r="AFX19" s="13"/>
+      <c r="AFY19" s="13"/>
+      <c r="AFZ19" s="13"/>
+      <c r="AGA19" s="13"/>
+      <c r="AGB19" s="13"/>
+      <c r="AGC19" s="13"/>
+      <c r="AGD19" s="13"/>
+      <c r="AGE19" s="13"/>
+      <c r="AGF19" s="13"/>
     </row>
     <row r="20" ht="13.500000" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>1728</v>
+        <v>1750</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -32888,10 +33482,43 @@
       <c r="AFU20" s="15">
         <v>33.560000000000002</v>
       </c>
+      <c r="AFV20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AFW20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AFX20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AFY20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AFZ20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AGA20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AGB20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AGC20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AGD20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AGE20" s="15">
+        <v>33.560000000000002</v>
+      </c>
+      <c r="AGF20" s="15">
+        <v>33.560000000000002</v>
+      </c>
     </row>
     <row r="21" ht="13.500000" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>1729</v>
+        <v>1751</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -34225,10 +34852,43 @@
       <c r="AFU21" s="13">
         <v>2.73</v>
       </c>
+      <c r="AFV21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AFW21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AFX21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AFY21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AFZ21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AGA21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AGB21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AGC21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AGD21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AGE21" s="13">
+        <v>2.73</v>
+      </c>
+      <c r="AGF21" s="13">
+        <v>2.73</v>
+      </c>
     </row>
     <row r="22" ht="13.500000" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>1730</v>
+        <v>1752</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -35562,10 +36222,43 @@
       <c r="AFU22" s="15">
         <v>5.7000000000000002</v>
       </c>
+      <c r="AFV22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AFW22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AFX22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AFY22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AFZ22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AGA22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AGB22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AGC22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AGD22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AGE22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="AGF22" s="15">
+        <v>5.7000000000000002</v>
+      </c>
     </row>
     <row r="23" ht="13.500000" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>1731</v>
+        <v>1753</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -36899,10 +37592,43 @@
       <c r="AFU23" s="13">
         <v>18.82</v>
       </c>
+      <c r="AFV23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AFW23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AFX23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AFY23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AFZ23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AGA23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AGB23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AGC23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AGD23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AGE23" s="13">
+        <v>18.82</v>
+      </c>
+      <c r="AGF23" s="13">
+        <v>18.82</v>
+      </c>
     </row>
     <row r="24" ht="13.500000" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>1732</v>
+        <v>1754</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -38236,10 +38962,43 @@
       <c r="AFU24" s="15">
         <v>6.7400000000000002</v>
       </c>
+      <c r="AFV24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AFW24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AFX24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AFY24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AFZ24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AGA24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AGB24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AGC24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AGD24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AGE24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
+      <c r="AGF24" s="15">
+        <v>6.7400000000000002</v>
+      </c>
     </row>
     <row r="25" ht="13.500000" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>1733</v>
+        <v>1755</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -39573,10 +40332,43 @@
       <c r="AFU25" s="13">
         <v>5.3899999999999997</v>
       </c>
+      <c r="AFV25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AFW25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AFX25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AFY25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AFZ25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AGA25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AGB25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AGC25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AGD25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AGE25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
+      <c r="AGF25" s="13">
+        <v>5.3899999999999997</v>
+      </c>
     </row>
     <row r="26" ht="13.500000" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>1734</v>
+        <v>1756</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -40910,10 +41702,43 @@
       <c r="AFU26" s="15">
         <v>9.6699999999999999</v>
       </c>
+      <c r="AFV26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AFW26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AFX26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AFY26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AFZ26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AGA26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AGB26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AGC26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AGD26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AGE26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
+      <c r="AGF26" s="15">
+        <v>9.6699999999999999</v>
+      </c>
     </row>
     <row r="27" ht="13.500000" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>1735</v>
+        <v>1757</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -42247,10 +43072,43 @@
       <c r="AFU27" s="13">
         <v>3.1400000000000001</v>
       </c>
+      <c r="AFV27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AFW27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AFX27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AFY27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AFZ27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AGA27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AGB27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AGC27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AGD27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AGE27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="AGF27" s="13">
+        <v>3.1400000000000001</v>
+      </c>
     </row>
     <row r="28" ht="13.500000" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>1736</v>
+        <v>1758</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -43584,10 +44442,43 @@
       <c r="AFU28" s="15">
         <v>4.5499999999999998</v>
       </c>
+      <c r="AFV28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AFW28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AFX28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AFY28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AFZ28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AGA28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AGB28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AGC28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AGD28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AGE28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
+      <c r="AGF28" s="15">
+        <v>4.5499999999999998</v>
+      </c>
     </row>
     <row r="29" ht="13.500000" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>1737</v>
+        <v>1759</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -44921,10 +45812,43 @@
       <c r="AFU29" s="13">
         <v>6.1699999999999999</v>
       </c>
+      <c r="AFV29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AFW29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AFX29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AFY29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AFZ29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AGA29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AGB29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AGC29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AGD29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AGE29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
+      <c r="AGF29" s="13">
+        <v>6.1699999999999999</v>
+      </c>
     </row>
     <row r="30" ht="13.500000" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>1738</v>
+        <v>1760</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -45778,10 +46702,21 @@
       <c r="AFS30" s="15"/>
       <c r="AFT30" s="15"/>
       <c r="AFU30" s="15"/>
+      <c r="AFV30" s="15"/>
+      <c r="AFW30" s="15"/>
+      <c r="AFX30" s="15"/>
+      <c r="AFY30" s="15"/>
+      <c r="AFZ30" s="15"/>
+      <c r="AGA30" s="15"/>
+      <c r="AGB30" s="15"/>
+      <c r="AGC30" s="15"/>
+      <c r="AGD30" s="15"/>
+      <c r="AGE30" s="15"/>
+      <c r="AGF30" s="15"/>
     </row>
     <row r="31" ht="13.500000" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>1739</v>
+        <v>1761</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -47115,6 +48050,39 @@
       <c r="AFU31" s="13">
         <v>3.5299999999999998</v>
       </c>
+      <c r="AFV31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AFW31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AFX31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AFY31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AFZ31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AGA31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AGB31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AGC31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AGD31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AGE31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="AGF31" s="13">
+        <v>3.5299999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
